--- a/R/analysis/data/Pt_21_Control.xlsx
+++ b/R/analysis/data/Pt_21_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.58</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.97</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>4.71</v>
       </c>
       <c r="K4" t="n">
-        <v>5.04</v>
+        <v>1.08</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.77</v>
+        <v>3.56</v>
       </c>
       <c r="M4" t="n">
-        <v>3.77</v>
+        <v>0.94</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.66</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>2.16</v>
       </c>
       <c r="L6" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0.96</v>
@@ -815,16 +815,16 @@
         <v>2.61</v>
       </c>
       <c r="K7" t="n">
-        <v>6.51</v>
+        <v>0.57</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4</v>
+        <v>4.6</v>
       </c>
       <c r="M7" t="n">
-        <v>3.01</v>
+        <v>0.18</v>
       </c>
       <c r="N7" t="n">
-        <v>0.12</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>1.64</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -995,16 +995,16 @@
         <v>2.67</v>
       </c>
       <c r="K10" t="n">
-        <v>5.64</v>
+        <v>1.15</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.81</v>
+        <v>3.98</v>
       </c>
       <c r="M10" t="n">
-        <v>2.6</v>
+        <v>0.23</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.17</v>
+        <v>1.83</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>2.12</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
         <v>0.53</v>
@@ -1120,7 +1120,7 @@
         <v>1.63</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="n">
         <v>0.71</v>
@@ -1179,16 +1179,16 @@
         <v>2.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.84</v>
+        <v>0.35</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.25</v>
+        <v>3.42</v>
       </c>
       <c r="M13" t="n">
-        <v>4.24</v>
+        <v>0.71</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.5</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0.18</v>
@@ -1250,7 +1250,7 @@
         <v>0.58</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O14" t="n">
         <v>0.52</v>
@@ -1304,7 +1304,7 @@
         <v>1.81</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.12</v>
+        <v>4.12</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1359,14 +1359,14 @@
         <v>3.16</v>
       </c>
       <c r="K16" t="n">
-        <v>6.45</v>
+        <v>0.62</v>
       </c>
       <c r="L16" t="n">
-        <v>0.44</v>
+        <v>4.56</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O16" t="n">
         <v>0.09</v>
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1482,7 +1482,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>0.96</v>
@@ -1541,16 +1541,16 @@
         <v>2.71</v>
       </c>
       <c r="K19" t="n">
-        <v>6.08</v>
+        <v>0.42</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="M19" t="n">
-        <v>4.42</v>
+        <v>0.18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.12</v>
+        <v>3.12</v>
       </c>
       <c r="O19" t="n">
         <v>0.18</v>
@@ -1612,7 +1612,7 @@
         <v>0.71</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>0.96</v>
@@ -1723,16 +1723,16 @@
         <v>1.75</v>
       </c>
       <c r="K22" t="n">
-        <v>6.36</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>3.01</v>
+        <v>0.88</v>
       </c>
       <c r="N22" t="n">
-        <v>0.62</v>
+        <v>2.12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>1.75</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>3.18</v>
       </c>
       <c r="K25" t="n">
-        <v>5.69</v>
+        <v>0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.31</v>
+        <v>4.02</v>
       </c>
       <c r="M25" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>1.41</v>
       </c>
       <c r="N26" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0.53</v>
       </c>
       <c r="L27" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2073,14 +2073,14 @@
         <v>0.83</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>1.77</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
